--- a/Templates/template.xlsx
+++ b/Templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOURABH\E-Com_Website\E-Com\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RUIDP_BILLING_CCC\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81336CDA-036B-45C0-A989-81F4D08A1968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E298B2-0D3F-4277-B421-4901CD1CAB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA6ABD9A-6893-4522-9D0D-403B2D5E7DA7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">राजस्थान जन स्वास्थ्य अभियांत्रिकी विभाग, खण्ड टोंक </t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chokdi No.: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">भुगतान की नियत तिथि  </t>
-  </si>
-  <si>
-    <t>चेक द्वारा</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नकद द्वारा  </t>
   </si>
   <si>
     <t>नाम</t>
@@ -297,6 +288,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,28 +315,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +638,7 @@
   <dimension ref="A1:W662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:W3"/>
+      <selection activeCell="D4" sqref="D4:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,219 +667,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="13" t="s">
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="K5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="N5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="O5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="P5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="Q5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="R5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="T6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="U6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -17100,6 +17085,21 @@
     <row r="662" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="O4:W4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="V5:V6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:N2"/>
@@ -17116,21 +17116,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="O4:W4"/>
-    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="3.937007874015748E-2" top="0.39370078740157483" bottom="0.74803149606299213" header="0.15748031496062992" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
